--- a/Основы Машинного обучения/Лаб1FeatureSpace/data_.xlsx
+++ b/Основы Машинного обучения/Лаб1FeatureSpace/data_.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Учёба\4 курс\LabsAntonAndrew\Основы Машинного обучения\Лаб1FeatureSpace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учёба\4 курс\LabsAntonAndrew\Основы Машинного обучения\Лаб1FeatureSpace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3D257B-0883-48D6-9273-EE4E2801CA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E36127-271B-4DDF-96F1-A09FC4BB27C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -171,7 +171,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.456898223301E-2</c:v>
+                  <c:v>4.9568982233009998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -233,7 +233,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -299,16 +298,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -660,7 +659,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,7 +716,7 @@
         <v>5</v>
       </c>
       <c r="H2">
-        <v>4.456898223301E-2</v>
+        <v>4.9568982233009998E-2</v>
       </c>
       <c r="I2">
         <v>9.2580086580086596E-2</v>
@@ -868,7 +867,7 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <v>6.0827625302982193</v>
+        <v>4.0576734849999996</v>
       </c>
       <c r="F7">
         <v>2.6315789473684219E-2</v>
